--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_355__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_355__Reeval_Sobol_Modell_1.3.xlsx
@@ -6118,19 +6118,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>78.73490142822266</c:v>
+                  <c:v>78.73490905761719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.07446670532227</c:v>
+                  <c:v>63.0744743347168</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>79.93263244628906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.77947998046875</c:v>
+                  <c:v>74.77949523925781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.68998718261719</c:v>
+                  <c:v>47.68999099731445</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>67.19232177734375</c:v>
@@ -6148,10 +6148,10 @@
                   <c:v>80.22051239013672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.63320922851562</c:v>
+                  <c:v>69.63321685791016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.00650024414062</c:v>
+                  <c:v>71.00650787353516</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>90.220947265625</c:v>
@@ -6175,13 +6175,13 @@
                   <c:v>83.26863861083984</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.05467224121094</c:v>
+                  <c:v>76.05467987060547</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>47.0737419128418</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.68871688842773</c:v>
+                  <c:v>29.6887149810791</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>48.81820297241211</c:v>
@@ -6193,22 +6193,22 @@
                   <c:v>80.68711090087891</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>67.76228332519531</c:v>
+                  <c:v>67.76229095458984</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>73.41155242919922</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>72.55033874511719</c:v>
+                  <c:v>72.55034637451172</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>80.41624450683594</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>77.44557189941406</c:v>
+                  <c:v>77.44557952880859</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76.22238922119141</c:v>
+                  <c:v>76.22239685058594</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>90.95882415771484</c:v>
@@ -6217,7 +6217,7 @@
                   <c:v>81.46728515625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81.56088256835938</c:v>
+                  <c:v>81.56089782714844</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>76.97389984130859</c:v>
@@ -6226,10 +6226,10 @@
                   <c:v>67.2529296875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80.61470031738281</c:v>
+                  <c:v>80.61471557617188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>74.77587890625</c:v>
+                  <c:v>74.77588653564453</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>72.77372741699219</c:v>
@@ -6241,10 +6241,10 @@
                   <c:v>76.72209930419922</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.93994903564453</c:v>
+                  <c:v>87.93996429443359</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82.19618988037109</c:v>
+                  <c:v>82.19619750976562</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>52.05144882202148</c:v>
@@ -6253,7 +6253,7 @@
                   <c:v>74.93031311035156</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>80.53733825683594</c:v>
+                  <c:v>80.53734588623047</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>105.4065780639648</c:v>
@@ -6262,16 +6262,16 @@
                   <c:v>50.9166145324707</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81.079833984375</c:v>
+                  <c:v>81.07984161376953</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>23.92835235595703</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>65.32163238525391</c:v>
+                  <c:v>65.32164764404297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>95.51188659667969</c:v>
+                  <c:v>95.51190185546875</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>89.39952850341797</c:v>
@@ -6286,7 +6286,7 @@
                   <c:v>64.88066101074219</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>54.48657989501953</c:v>
+                  <c:v>54.4865837097168</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>69.65080261230469</c:v>
@@ -6301,13 +6301,13 @@
                   <c:v>91.34424591064453</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>80.18064117431641</c:v>
+                  <c:v>80.18064880371094</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>85.63321685791016</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76.61248779296875</c:v>
+                  <c:v>76.61249542236328</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>39.51825332641602</c:v>
@@ -6316,7 +6316,7 @@
                   <c:v>76.04046630859375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>87.56795501708984</c:v>
+                  <c:v>87.56796264648438</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>87.7025146484375</c:v>
@@ -6325,7 +6325,7 @@
                   <c:v>83.64596557617188</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>88.29511260986328</c:v>
+                  <c:v>88.29512023925781</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>59.01221466064453</c:v>
@@ -6334,22 +6334,22 @@
                   <c:v>75.82239532470703</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>27.5797061920166</c:v>
+                  <c:v>27.57970428466797</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>88.32328033447266</c:v>
+                  <c:v>88.32328796386719</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>76.99002838134766</c:v>
+                  <c:v>76.99003601074219</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>90.63990020751953</c:v>
+                  <c:v>90.63990783691406</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>27.81011962890625</c:v>
+                  <c:v>27.81011772155762</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>51.93706512451172</c:v>
+                  <c:v>51.93706893920898</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45.72412109375</c:v>
@@ -6358,7 +6358,7 @@
                   <c:v>51.16291427612305</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>52.74056625366211</c:v>
+                  <c:v>52.74057006835938</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>79.99461364746094</c:v>
@@ -6370,22 +6370,22 @@
                   <c:v>73.10492706298828</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16.94975280761719</c:v>
+                  <c:v>16.94975090026855</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>23.54135513305664</c:v>
+                  <c:v>23.54135322570801</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>101.3902969360352</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>83.74995422363281</c:v>
+                  <c:v>83.74996948242188</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>95.58432006835938</c:v>
+                  <c:v>95.58432769775391</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>57.41538238525391</c:v>
+                  <c:v>57.41538619995117</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>84.77362060546875</c:v>
@@ -6400,16 +6400,16 @@
                   <c:v>45.76504516601562</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>72.32170867919922</c:v>
+                  <c:v>72.32171630859375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>78.74427032470703</c:v>
+                  <c:v>78.74427795410156</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>82.42363739013672</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>26.72051620483398</c:v>
+                  <c:v>26.72051239013672</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>81.13132476806641</c:v>
@@ -6421,10 +6421,10 @@
                   <c:v>80.89031982421875</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>71.08767700195312</c:v>
+                  <c:v>71.08768463134766</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>75.617431640625</c:v>
+                  <c:v>75.61743927001953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>83.8301</v>
       </c>
       <c r="F2">
-        <v>78.73490142822266</v>
+        <v>78.73490905761719</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>63.5721</v>
       </c>
       <c r="F3">
-        <v>63.07446670532227</v>
+        <v>63.0744743347168</v>
       </c>
       <c r="G3">
         <v>106</v>
@@ -7215,7 +7215,7 @@
         <v>88.4752</v>
       </c>
       <c r="F5">
-        <v>74.77947998046875</v>
+        <v>74.77949523925781</v>
       </c>
       <c r="G5">
         <v>106</v>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>47.68998718261719</v>
+        <v>47.68999099731445</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>73.68899999999999</v>
       </c>
       <c r="F12">
-        <v>69.63320922851562</v>
+        <v>69.63321685791016</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>74.6092</v>
       </c>
       <c r="F13">
-        <v>71.00650024414062</v>
+        <v>71.00650787353516</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>76.05467224121094</v>
+        <v>76.05467987060547</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>29.68871688842773</v>
+        <v>29.6887149810791</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>63.4677</v>
       </c>
       <c r="F27">
-        <v>67.76228332519531</v>
+        <v>67.76229095458984</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>82.548</v>
       </c>
       <c r="F29">
-        <v>72.55033874511719</v>
+        <v>72.55034637451172</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.5082</v>
       </c>
       <c r="F31">
-        <v>77.44557189941406</v>
+        <v>77.44557952880859</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>76.2226</v>
       </c>
       <c r="F32">
-        <v>76.22238922119141</v>
+        <v>76.22239685058594</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F35">
-        <v>81.56088256835938</v>
+        <v>81.56089782714844</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>83.1935</v>
       </c>
       <c r="F38">
-        <v>80.61470031738281</v>
+        <v>80.61471557617188</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>74.9051</v>
       </c>
       <c r="F39">
-        <v>74.77587890625</v>
+        <v>74.77588653564453</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>87.93994903564453</v>
+        <v>87.93996429443359</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>82.19618988037109</v>
+        <v>82.19619750976562</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>75.5748</v>
       </c>
       <c r="F47">
-        <v>80.53733825683594</v>
+        <v>80.53734588623047</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>81.079833984375</v>
+        <v>81.07984161376953</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>61.0616</v>
       </c>
       <c r="F52">
-        <v>65.32163238525391</v>
+        <v>65.32164764404297</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>96.6493</v>
       </c>
       <c r="F53">
-        <v>95.51188659667969</v>
+        <v>95.51190185546875</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>54.48657989501953</v>
+        <v>54.4865837097168</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>80.29730000000001</v>
       </c>
       <c r="F63">
-        <v>80.18064117431641</v>
+        <v>80.18064880371094</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>76.6541</v>
       </c>
       <c r="F65">
-        <v>76.61248779296875</v>
+        <v>76.61249542236328</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>87.56795501708984</v>
+        <v>87.56796264648438</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>83.73390000000001</v>
       </c>
       <c r="F71">
-        <v>88.29511260986328</v>
+        <v>88.29512023925781</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>27.5797061920166</v>
+        <v>27.57970428466797</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>88.32328033447266</v>
+        <v>88.32328796386719</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>71.3847</v>
       </c>
       <c r="F76">
-        <v>76.99002838134766</v>
+        <v>76.99003601074219</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>93.0134</v>
       </c>
       <c r="F77">
-        <v>90.63990020751953</v>
+        <v>90.63990783691406</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>27.81011962890625</v>
+        <v>27.81011772155762</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>51.93706512451172</v>
+        <v>51.93706893920898</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>58.0646</v>
       </c>
       <c r="F82">
-        <v>52.74056625366211</v>
+        <v>52.74057006835938</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>16.94975280761719</v>
+        <v>16.94975090026855</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>23.54135513305664</v>
+        <v>23.54135322570801</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>90.2206</v>
       </c>
       <c r="F89">
-        <v>83.74995422363281</v>
+        <v>83.74996948242188</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>89.8989</v>
       </c>
       <c r="F90">
-        <v>95.58432006835938</v>
+        <v>95.58432769775391</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>57.41538238525391</v>
+        <v>57.41538619995117</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>72.32170867919922</v>
+        <v>72.32171630859375</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>80.28619999999999</v>
       </c>
       <c r="F97">
-        <v>78.74427032470703</v>
+        <v>78.74427795410156</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>26.72051620483398</v>
+        <v>26.72051239013672</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>62.6855</v>
       </c>
       <c r="F103">
-        <v>71.08767700195312</v>
+        <v>71.08768463134766</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>66.7792</v>
       </c>
       <c r="F104">
-        <v>75.617431640625</v>
+        <v>75.61743927001953</v>
       </c>
     </row>
     <row r="105" spans="1:6">
